--- a/classification/droptc/message/bert-base-uncased/unfreeze/52680723/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/unfreeze/52680723/prediction.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -1072,12 +1072,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1855,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2692,12 +2692,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/bert-base-uncased/unfreeze/52680723/prediction.xlsx
+++ b/classification/droptc/message/bert-base-uncased/unfreeze/52680723/prediction.xlsx
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1369,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2233,12 +2233,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2314,12 +2314,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -3556,12 +3556,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
